--- a/biology/Botanique/Botryche_de_l'Ouest/Botryche_de_l'Ouest.xlsx
+++ b/biology/Botanique/Botryche_de_l'Ouest/Botryche_de_l'Ouest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Botryche_de_l%27Ouest</t>
+          <t>Botryche_de_l'Ouest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Botrychium lancéolé, Botryche lancéolé, Botryche de l'Ouest
 Botrychium lanceolatum, de noms communs Botrychium lancéolé, Botryche lancéolé ou  	Botryche de l'Ouest, est une espèce de fougères  de la famille des Ophioglossaceae et du genre Botrychium.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Botryche_de_l%27Ouest</t>
+          <t>Botryche_de_l'Ouest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Botryche lancéolé a une hauteur de 3 à 15 cm. La panicule sporangifère est à pétiole court, plus court que la partie foliacée, celle-ci généralement sessile, longue de 1 à 5 cm, plus longue que large, pennatiséquée ou bipennatiséquée, à 3 à 4 paires de pennes dirigés vers l'avant. Les pinnules sont oblongues-lancéolées, aigües ou obtuses, mais pas arrondies ni tronquées. Toute la partie foliacée et stérile est glabre, charnue, rigide, insérée à mi-hauteur, et non pétiolée[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Botryche lancéolé a une hauteur de 3 à 15 cm. La panicule sporangifère est à pétiole court, plus court que la partie foliacée, celle-ci généralement sessile, longue de 1 à 5 cm, plus longue que large, pennatiséquée ou bipennatiséquée, à 3 à 4 paires de pennes dirigés vers l'avant. Les pinnules sont oblongues-lancéolées, aigües ou obtuses, mais pas arrondies ni tronquées. Toute la partie foliacée et stérile est glabre, charnue, rigide, insérée à mi-hauteur, et non pétiolée. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Botryche_de_l%27Ouest</t>
+          <t>Botryche_de_l'Ouest</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a pour aire de répartition les régions froides de l'hémisphère nord. Elle a pour habitat les forêts ouvertes et les flancs herbeux[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a pour aire de répartition les régions froides de l'hémisphère nord. Elle a pour habitat les forêts ouvertes et les flancs herbeux.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Botryche_de_l%27Ouest</t>
+          <t>Botryche_de_l'Ouest</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Botrychium lanceolatum admet deux sous-espèces selon Catalogue of Life                                   (29 octobre 2020)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Botrychium lanceolatum admet deux sous-espèces selon Catalogue of Life                                   (29 octobre 2020) :
 Botrychium lanceolatum subsp. angustisegmentum (Pease &amp; Moore) Clausen (présente uniquement en Amérique du Nord)
 Synonymes :
 Botrychium angustisegmentum (Pease &amp; A. H. Moore) Fernald
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Botryche_de_l%27Ouest</t>
+          <t>Botryche_de_l'Ouest</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,9 +638,11 @@
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est classée « espèce vulnérable » (VU) sur la Liste rouge européenne de l'UICN 2017, « en danger critique d'extinction » (CR) sur la Liste rouge de la flore vasculaire de Rhône-Alpes en France[1]. Elle est en voie de disparition au Saskatchewan[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est classée « espèce vulnérable » (VU) sur la Liste rouge européenne de l'UICN 2017, « en danger critique d'extinction » (CR) sur la Liste rouge de la flore vasculaire de Rhône-Alpes en France. Elle est en voie de disparition au Saskatchewan.
 </t>
         </is>
       </c>
